--- a/Instructions/BOM.xlsx
+++ b/Instructions/BOM.xlsx
@@ -1,29 +1,182 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mogamad-Ameen Rawoot\Documents\UNIVERSITY\4th Year\2nd Semester\EEE4022S\GitHub\Mini-Drone\Instructions\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28377DB4-2183-498C-910E-D8AE565C5DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+  <si>
+    <t>Components</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Motors</t>
+  </si>
+  <si>
+    <t>Frame</t>
+  </si>
+  <si>
+    <t>FC</t>
+  </si>
+  <si>
+    <t>Receiver</t>
+  </si>
+  <si>
+    <t>Flow Deck</t>
+  </si>
+  <si>
+    <t>Battery</t>
+  </si>
+  <si>
+    <t>Props</t>
+  </si>
+  <si>
+    <t>ESC</t>
+  </si>
+  <si>
+    <t>PBM</t>
+  </si>
+  <si>
+    <t>Wires + Misc</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>3D printed</t>
+  </si>
+  <si>
+    <t>Pixracer</t>
+  </si>
+  <si>
+    <t>HGLRC 1103 8000KV</t>
+  </si>
+  <si>
+    <t>XM+</t>
+  </si>
+  <si>
+    <t>Flow Deck V2</t>
+  </si>
+  <si>
+    <t>Onbo 460mAh 75C 2S</t>
+  </si>
+  <si>
+    <t>65mm HQ Prop</t>
+  </si>
+  <si>
+    <t>DYS ELF 10A ESC</t>
+  </si>
+  <si>
+    <t>Price alltogether</t>
+  </si>
+  <si>
+    <t>BEC + V,C sense</t>
+  </si>
+  <si>
+    <t>JST GH 6-pin male</t>
+  </si>
+  <si>
+    <t>Dupont 1x4 female</t>
+  </si>
+  <si>
+    <t>Dupont 1x1 female</t>
+  </si>
+  <si>
+    <t>4x1 male breakaway</t>
+  </si>
+  <si>
+    <t>or 4x2 male header</t>
+  </si>
+  <si>
+    <t>JST GH 5-pin male</t>
+  </si>
+  <si>
+    <t>need pins as well</t>
+  </si>
+  <si>
+    <t>conn1</t>
+  </si>
+  <si>
+    <t>conn2</t>
+  </si>
+  <si>
+    <t>conn3</t>
+  </si>
+  <si>
+    <t>conn4</t>
+  </si>
+  <si>
+    <t>conn5</t>
+  </si>
+  <si>
+    <t>Better replacement</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="6" formatCode="&quot;R&quot;#,##0;[Red]\-&quot;R&quot;#,##0"/>
+    <numFmt numFmtId="164" formatCode="&quot;R&quot;#,##0"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -37,7 +190,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -45,14 +198,107 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -330,13 +576,324 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1">
+        <v>16</v>
+      </c>
+      <c r="C2" s="10">
+        <v>800</v>
+      </c>
+      <c r="D2" s="7">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
+        <v>15</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1">
+        <v>11</v>
+      </c>
+      <c r="C4" s="11">
+        <v>2700</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="11">
+        <v>300</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1">
+        <v>30</v>
+      </c>
+      <c r="C7" s="10">
+        <v>236</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="10">
+        <v>55</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1">
+        <v>6</v>
+      </c>
+      <c r="C9" s="10">
+        <v>570</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="1">
+        <v>15</v>
+      </c>
+      <c r="C10" s="11">
+        <v>550</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="7">
+        <v>4</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="15">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="18">
+        <v>3</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="18"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="7">
+        <v>2</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1">
+        <v>5</v>
+      </c>
+      <c r="C16" s="17"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1">
+        <f>SUM(B2:B16)</f>
+        <v>107</v>
+      </c>
+      <c r="C17" s="11">
+        <f>SUM(C2:C16)</f>
+        <v>5211</v>
+      </c>
+      <c r="E17" s="13"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E18" s="13"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D19" s="9"/>
+      <c r="E19" s="16"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="Brushless Motor" xr:uid="{895FE0F5-FF11-4954-962D-520C9A9AF67E}"/>
+    <hyperlink ref="E4" r:id="rId2" display="FC1" xr:uid="{79C8CF04-886A-431D-9E54-B88A9866093C}"/>
+    <hyperlink ref="E5" r:id="rId3" display="https://flyingrobot.co/collections/rx/products/frsky-xm-receiver" xr:uid="{C6ED5CF5-1A8A-481B-94E8-4806473A6777}"/>
+    <hyperlink ref="E6" r:id="rId4" display="https://www.bitcraze.io/products/flow-deck-v2/" xr:uid="{69A5120A-9B72-490F-84D2-78902756A08C}"/>
+    <hyperlink ref="E7" r:id="rId5" display="https://www.rclipo.co.za/lipo/2-cell/onbo-460mah-2s-75c-lipo-detail" xr:uid="{D429F983-324A-4B64-BBCB-40B795C11035}"/>
+    <hyperlink ref="E8" r:id="rId6" display="https://flyingrobot.co/collections/3inch-propellers/products/hq-durable-prop-t65mm-5cw-5ccw-poly-carbonate" xr:uid="{2A4E3BCF-2665-4AEA-8495-274303E9E565}"/>
+    <hyperlink ref="E9" r:id="rId7" display="https://flyingrobot.co/collections/4in1-escs/products/dys-elf-4in1-10a-esc" xr:uid="{15940FCF-A110-43DD-BFFB-73DB142285BF}"/>
+    <hyperlink ref="E10" r:id="rId8" xr:uid="{E3506315-4296-4BFE-855B-8425BEBDA530}"/>
+    <hyperlink ref="E13" r:id="rId9" xr:uid="{5CD7CFDF-C85B-4A58-979C-20409243393A}"/>
+    <hyperlink ref="E11" r:id="rId10" xr:uid="{9C8A6210-5CE0-4A5E-8D5B-E72E198475FA}"/>
+    <hyperlink ref="E12" r:id="rId11" xr:uid="{6E7ED85B-8744-4241-BB7F-E4C7B27BE94A}"/>
+    <hyperlink ref="E15" r:id="rId12" display="4x2 male header or breakaway" xr:uid="{A6E4C092-980B-41D0-B111-4329BCB64B0E}"/>
+    <hyperlink ref="E14" r:id="rId13" xr:uid="{5461870A-516E-44DA-ACAA-F5FFA85AFE70}"/>
+    <hyperlink ref="F9" r:id="rId14" xr:uid="{0BC49AB8-8734-418F-89EB-8667EB081C85}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId15"/>
 </worksheet>
 </file>